--- a/Sort-Compare/compare.xlsx
+++ b/Sort-Compare/compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Korea University\Information Security Major\정보과학\과목16(최진영)\hw\Sort-Compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0232D384-EB40-4A0E-BB41-4A4D489303F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0B0F14-68AA-479D-8594-F9BF7FEBE3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9A02D3E0-0D81-4AFF-89D5-B3247935DEB0}"/>
   </bookViews>
@@ -31,6 +31,27 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Selection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bubble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -74,8 +95,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -93,6 +117,2497 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>119.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1147.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7910</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85378.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>211873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDA1-4BB2-9A27-2FE117BBEB1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>175.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1859</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12881.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25516.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>408565</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EDA1-4BB2-9A27-2FE117BBEB1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="863428495"/>
+        <c:axId val="863430991"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Selection</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$3:$H$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$4:$H$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>2941.2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>104478</c:v>
+                      </c:pt>
+                      <c:pt idx="2" formatCode="0.00E+00">
+                        <c:v>2638370</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="0.00E+00">
+                        <c:v>10470300</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="0.00E+00">
+                        <c:v>617850000</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="0.00E+00">
+                        <c:v>1822340000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-EDA1-4BB2-9A27-2FE117BBEB1B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Bubble</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$3:$H$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$5:$H$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>3708.2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>199352</c:v>
+                      </c:pt>
+                      <c:pt idx="2" formatCode="0.00E+00">
+                        <c:v>9039370</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="0.00E+00">
+                        <c:v>35525900</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="0.00E+00">
+                        <c:v>1217780000</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="0.00E+00">
+                        <c:v>3965000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-EDA1-4BB2-9A27-2FE117BBEB1B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="863428495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="863430991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="863430991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="863428495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2941.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104478</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>2638370</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>10470300</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>617850000</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>1822340000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1EF3-4C02-A67A-2A70CDC748A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3708.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199352</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>9039370</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>35525900</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>1217780000</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>3965000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1EF3-4C02-A67A-2A70CDC748A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="863428495"/>
+        <c:axId val="863430991"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Quick</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$3:$H$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$6:$H$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>119.6</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1147.8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7910</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>15548</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>85378.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>211873</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-1EF3-4C02-A67A-2A70CDC748A3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Heap</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$3:$H$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$7:$H$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>175.6</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1859</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>12881.8</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>25516.400000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>140007</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>408565</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-1EF3-4C02-A67A-2A70CDC748A3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="863428495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="863430991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="863430991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="863428495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15405</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>46052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>82647</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>135172</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788ACE3F-C46C-4964-B117-7AB98203F646}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>310496</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{622202B7-3AD6-4EFE-AE16-D9C3BFC0CAFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,13 +2907,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF008264-1C12-4F20-AA56-5F8D46D23345}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="8" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>10000</v>
+      </c>
+      <c r="E3">
+        <v>50000</v>
+      </c>
+      <c r="F3">
+        <v>100000</v>
+      </c>
+      <c r="G3">
+        <v>500000</v>
+      </c>
+      <c r="H3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2941.2</v>
+      </c>
+      <c r="D4">
+        <v>104478</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2638370</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10470300</v>
+      </c>
+      <c r="G4" s="1">
+        <v>617850000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1822340000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>3708.2</v>
+      </c>
+      <c r="D5">
+        <v>199352</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9039370</v>
+      </c>
+      <c r="F5" s="1">
+        <v>35525900</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1217780000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3965000000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>119.6</v>
+      </c>
+      <c r="D6">
+        <v>1147.8</v>
+      </c>
+      <c r="E6">
+        <v>7910</v>
+      </c>
+      <c r="F6">
+        <v>15548</v>
+      </c>
+      <c r="G6">
+        <v>85378.4</v>
+      </c>
+      <c r="H6">
+        <v>211873</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>175.6</v>
+      </c>
+      <c r="D7">
+        <v>1859</v>
+      </c>
+      <c r="E7">
+        <v>12881.8</v>
+      </c>
+      <c r="F7">
+        <v>25516.400000000001</v>
+      </c>
+      <c r="G7">
+        <v>140007</v>
+      </c>
+      <c r="H7">
+        <v>408565</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>